--- a/test-files/adjacency-matrix-modifications/data-types/data-type-header-fraction-input.xlsx
+++ b/test-files/adjacency-matrix-modifications/data-types/data-type-header-fraction-input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2364,7 +2364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E22"/>
     </sheetView>
   </sheetViews>
@@ -4400,10 +4400,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -5208,7 +5208,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="13" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
